--- a/backend/attendance.xlsx
+++ b/backend/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,57 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>shannu</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>19:30:27</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>vignesh</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-06-08</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>19:35:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>vignesh</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20:27:01</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/attendance.xlsx
+++ b/backend/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,23 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>dharani</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-06-15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12:12:58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
